--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Il10rb</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0981112259223408</v>
+        <v>0.1018866666666667</v>
       </c>
       <c r="H2">
-        <v>0.0981112259223408</v>
+        <v>0.30566</v>
       </c>
       <c r="I2">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="J2">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.5047600196107</v>
+        <v>16.628124</v>
       </c>
       <c r="N2">
-        <v>14.5047600196107</v>
+        <v>49.88437200000001</v>
       </c>
       <c r="O2">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056827</v>
       </c>
       <c r="P2">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056826</v>
       </c>
       <c r="Q2">
-        <v>1.423079787233362</v>
+        <v>1.69418412728</v>
       </c>
       <c r="R2">
-        <v>1.423079787233362</v>
+        <v>15.24765714552</v>
       </c>
       <c r="S2">
-        <v>0.001924278105621199</v>
+        <v>0.00147143021778283</v>
       </c>
       <c r="T2">
-        <v>0.001924278105621199</v>
+        <v>0.001471430217782829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0981112259223408</v>
+        <v>0.1018866666666667</v>
       </c>
       <c r="H3">
-        <v>0.0981112259223408</v>
+        <v>0.30566</v>
       </c>
       <c r="I3">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="J3">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.16243740908202</v>
+        <v>8.415293333333333</v>
       </c>
       <c r="N3">
-        <v>8.16243740908202</v>
+        <v>25.24588</v>
       </c>
       <c r="O3">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396309</v>
       </c>
       <c r="P3">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396308</v>
       </c>
       <c r="Q3">
-        <v>0.8008267407194122</v>
+        <v>0.8574061867555555</v>
       </c>
       <c r="R3">
-        <v>0.8008267407194122</v>
+        <v>7.7166556808</v>
       </c>
       <c r="S3">
-        <v>0.001082872076033253</v>
+        <v>0.0007446731153901101</v>
       </c>
       <c r="T3">
-        <v>0.001082872076033253</v>
+        <v>0.00074467311539011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0981112259223408</v>
+        <v>0.1018866666666667</v>
       </c>
       <c r="H4">
-        <v>0.0981112259223408</v>
+        <v>0.30566</v>
       </c>
       <c r="I4">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="J4">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.1580873058836</v>
+        <v>102.101612</v>
       </c>
       <c r="N4">
-        <v>91.1580873058836</v>
+        <v>306.304836</v>
       </c>
       <c r="O4">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="P4">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="Q4">
-        <v>8.943631698316013</v>
+        <v>10.40279290797333</v>
       </c>
       <c r="R4">
-        <v>8.943631698316013</v>
+        <v>93.62513617176</v>
       </c>
       <c r="S4">
-        <v>0.01209351353044485</v>
+        <v>0.009035017851751525</v>
       </c>
       <c r="T4">
-        <v>0.01209351353044485</v>
+        <v>0.009035017851751525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0981112259223408</v>
+        <v>0.1018866666666667</v>
       </c>
       <c r="H5">
-        <v>0.0981112259223408</v>
+        <v>0.30566</v>
       </c>
       <c r="I5">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="J5">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.156990077207</v>
+        <v>101.0756123333333</v>
       </c>
       <c r="N5">
-        <v>100.156990077207</v>
+        <v>303.226837</v>
       </c>
       <c r="O5">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181257</v>
       </c>
       <c r="P5">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181256</v>
       </c>
       <c r="Q5">
-        <v>9.826525081166501</v>
+        <v>10.29825722193555</v>
       </c>
       <c r="R5">
-        <v>9.826525081166501</v>
+        <v>92.68431499741999</v>
       </c>
       <c r="S5">
-        <v>0.01328735552121612</v>
+        <v>0.008944226676934182</v>
       </c>
       <c r="T5">
-        <v>0.01328735552121612</v>
+        <v>0.00894422667693418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0981112259223408</v>
+        <v>0.1018866666666667</v>
       </c>
       <c r="H6">
-        <v>0.0981112259223408</v>
+        <v>0.30566</v>
       </c>
       <c r="I6">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="J6">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.111051237794</v>
+        <v>173.8965253333333</v>
       </c>
       <c r="N6">
-        <v>167.111051237794</v>
+        <v>521.689576</v>
       </c>
       <c r="O6">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="P6">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="Q6">
-        <v>16.39547010211107</v>
+        <v>17.71773731112889</v>
       </c>
       <c r="R6">
-        <v>16.39547010211107</v>
+        <v>159.45963580016</v>
       </c>
       <c r="S6">
-        <v>0.02216983505204246</v>
+        <v>0.01538818222325645</v>
       </c>
       <c r="T6">
-        <v>0.02216983505204246</v>
+        <v>0.01538818222325645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0981112259223408</v>
+        <v>0.1018866666666667</v>
       </c>
       <c r="H7">
-        <v>0.0981112259223408</v>
+        <v>0.30566</v>
       </c>
       <c r="I7">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="J7">
-        <v>0.05113792069992258</v>
+        <v>0.0359969498102464</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.37240548240858</v>
+        <v>4.671913333333333</v>
       </c>
       <c r="N7">
-        <v>4.37240548240858</v>
+        <v>14.01574</v>
       </c>
       <c r="O7">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="P7">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="Q7">
-        <v>0.4289820621086697</v>
+        <v>0.4760056764888889</v>
       </c>
       <c r="R7">
-        <v>0.4289820621086697</v>
+        <v>4.2840510884</v>
       </c>
       <c r="S7">
-        <v>0.000580066414564696</v>
+        <v>0.0004134197251312999</v>
       </c>
       <c r="T7">
-        <v>0.000580066414564696</v>
+        <v>0.0004134197251312999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.60007381191054</v>
+        <v>0.934719</v>
       </c>
       <c r="H8">
-        <v>0.60007381191054</v>
+        <v>2.804157</v>
       </c>
       <c r="I8">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="J8">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.5047600196107</v>
+        <v>16.628124</v>
       </c>
       <c r="N8">
-        <v>14.5047600196107</v>
+        <v>49.88437200000001</v>
       </c>
       <c r="O8">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056827</v>
       </c>
       <c r="P8">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056826</v>
       </c>
       <c r="Q8">
-        <v>8.703926635815391</v>
+        <v>15.542623437156</v>
       </c>
       <c r="R8">
-        <v>8.703926635815391</v>
+        <v>139.883610934404</v>
       </c>
       <c r="S8">
-        <v>0.01176938609380039</v>
+        <v>0.01349905563438869</v>
       </c>
       <c r="T8">
-        <v>0.01176938609380039</v>
+        <v>0.01349905563438869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.60007381191054</v>
+        <v>0.934719</v>
       </c>
       <c r="H9">
-        <v>0.60007381191054</v>
+        <v>2.804157</v>
       </c>
       <c r="I9">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="J9">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.16243740908202</v>
+        <v>8.415293333333333</v>
       </c>
       <c r="N9">
-        <v>8.16243740908202</v>
+        <v>25.24588</v>
       </c>
       <c r="O9">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396309</v>
       </c>
       <c r="P9">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396308</v>
       </c>
       <c r="Q9">
-        <v>4.898064930549039</v>
+        <v>7.865934569239999</v>
       </c>
       <c r="R9">
-        <v>4.898064930549039</v>
+        <v>70.79341112316</v>
       </c>
       <c r="S9">
-        <v>0.006623127663200343</v>
+        <v>0.006831709511329533</v>
       </c>
       <c r="T9">
-        <v>0.006623127663200343</v>
+        <v>0.006831709511329532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.60007381191054</v>
+        <v>0.934719</v>
       </c>
       <c r="H10">
-        <v>0.60007381191054</v>
+        <v>2.804157</v>
       </c>
       <c r="I10">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="J10">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>91.1580873058836</v>
+        <v>102.101612</v>
       </c>
       <c r="N10">
-        <v>91.1580873058836</v>
+        <v>306.304836</v>
       </c>
       <c r="O10">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="P10">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="Q10">
-        <v>54.70158093611538</v>
+        <v>95.436316667028</v>
       </c>
       <c r="R10">
-        <v>54.70158093611538</v>
+        <v>858.9268500032521</v>
       </c>
       <c r="S10">
-        <v>0.07396707864347717</v>
+        <v>0.0828882043908722</v>
       </c>
       <c r="T10">
-        <v>0.07396707864347717</v>
+        <v>0.0828882043908722</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.60007381191054</v>
+        <v>0.934719</v>
       </c>
       <c r="H11">
-        <v>0.60007381191054</v>
+        <v>2.804157</v>
       </c>
       <c r="I11">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="J11">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>100.156990077207</v>
+        <v>101.0756123333333</v>
       </c>
       <c r="N11">
-        <v>100.156990077207</v>
+        <v>303.226837</v>
       </c>
       <c r="O11">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181257</v>
       </c>
       <c r="P11">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181256</v>
       </c>
       <c r="Q11">
-        <v>60.10158682511573</v>
+        <v>94.47729528460098</v>
       </c>
       <c r="R11">
-        <v>60.10158682511573</v>
+        <v>850.2956575614089</v>
       </c>
       <c r="S11">
-        <v>0.08126892720857448</v>
+        <v>0.08205527660050946</v>
       </c>
       <c r="T11">
-        <v>0.08126892720857448</v>
+        <v>0.08205527660050946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.60007381191054</v>
+        <v>0.934719</v>
       </c>
       <c r="H12">
-        <v>0.60007381191054</v>
+        <v>2.804157</v>
       </c>
       <c r="I12">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="J12">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>167.111051237794</v>
+        <v>173.8965253333333</v>
       </c>
       <c r="N12">
-        <v>167.111051237794</v>
+        <v>521.689576</v>
       </c>
       <c r="O12">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="P12">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="Q12">
-        <v>100.2789655286406</v>
+        <v>162.544386263048</v>
       </c>
       <c r="R12">
-        <v>100.2789655286406</v>
+        <v>1462.899476367432</v>
       </c>
       <c r="S12">
-        <v>0.1355964855605549</v>
+        <v>0.1411728027828965</v>
       </c>
       <c r="T12">
-        <v>0.1355964855605549</v>
+        <v>0.1411728027828965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.60007381191054</v>
+        <v>0.934719</v>
       </c>
       <c r="H13">
-        <v>0.60007381191054</v>
+        <v>2.804157</v>
       </c>
       <c r="I13">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="J13">
-        <v>0.3127728424458904</v>
+        <v>0.3302398049762845</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.37240548240858</v>
+        <v>4.671913333333333</v>
       </c>
       <c r="N13">
-        <v>4.37240548240858</v>
+        <v>14.01574</v>
       </c>
       <c r="O13">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="P13">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="Q13">
-        <v>2.62376602504746</v>
+        <v>4.36692615902</v>
       </c>
       <c r="R13">
-        <v>2.62376602504746</v>
+        <v>39.30233543118</v>
       </c>
       <c r="S13">
-        <v>0.003547837276283133</v>
+        <v>0.003792756056288067</v>
       </c>
       <c r="T13">
-        <v>0.003547837276283133</v>
+        <v>0.003792756056288067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.260043876459023</v>
+        <v>0.3663483333333333</v>
       </c>
       <c r="H14">
-        <v>0.260043876459023</v>
+        <v>1.099045</v>
       </c>
       <c r="I14">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="J14">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.5047600196107</v>
+        <v>16.628124</v>
       </c>
       <c r="N14">
-        <v>14.5047600196107</v>
+        <v>49.88437200000001</v>
       </c>
       <c r="O14">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056827</v>
       </c>
       <c r="P14">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056826</v>
       </c>
       <c r="Q14">
-        <v>3.771874022607421</v>
+        <v>6.091685513860001</v>
       </c>
       <c r="R14">
-        <v>3.771874022607421</v>
+        <v>54.82516962474001</v>
       </c>
       <c r="S14">
-        <v>0.005100300534080037</v>
+        <v>0.005290741424141628</v>
       </c>
       <c r="T14">
-        <v>0.005100300534080037</v>
+        <v>0.005290741424141627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.260043876459023</v>
+        <v>0.3663483333333333</v>
       </c>
       <c r="H15">
-        <v>0.260043876459023</v>
+        <v>1.099045</v>
       </c>
       <c r="I15">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="J15">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.16243740908202</v>
+        <v>8.415293333333333</v>
       </c>
       <c r="N15">
-        <v>8.16243740908202</v>
+        <v>25.24588</v>
       </c>
       <c r="O15">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396309</v>
       </c>
       <c r="P15">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396308</v>
       </c>
       <c r="Q15">
-        <v>2.122591865211833</v>
+        <v>3.082928687177778</v>
       </c>
       <c r="R15">
-        <v>2.122591865211833</v>
+        <v>27.7463581846</v>
       </c>
       <c r="S15">
-        <v>0.002870153233879787</v>
+        <v>0.002677580527723365</v>
       </c>
       <c r="T15">
-        <v>0.002870153233879787</v>
+        <v>0.002677580527723364</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.260043876459023</v>
+        <v>0.3663483333333333</v>
       </c>
       <c r="H16">
-        <v>0.260043876459023</v>
+        <v>1.099045</v>
       </c>
       <c r="I16">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="J16">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>91.1580873058836</v>
+        <v>102.101612</v>
       </c>
       <c r="N16">
-        <v>91.1580873058836</v>
+        <v>306.304836</v>
       </c>
       <c r="O16">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="P16">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="Q16">
-        <v>23.70510239361203</v>
+        <v>37.40475538684667</v>
       </c>
       <c r="R16">
-        <v>23.70510239361203</v>
+        <v>336.64279848162</v>
       </c>
       <c r="S16">
-        <v>0.03205386650612034</v>
+        <v>0.03248672117672661</v>
       </c>
       <c r="T16">
-        <v>0.03205386650612034</v>
+        <v>0.03248672117672661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.260043876459023</v>
+        <v>0.3663483333333333</v>
       </c>
       <c r="H17">
-        <v>0.260043876459023</v>
+        <v>1.099045</v>
       </c>
       <c r="I17">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="J17">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>100.156990077207</v>
+        <v>101.0756123333333</v>
       </c>
       <c r="N17">
-        <v>100.156990077207</v>
+        <v>303.226837</v>
       </c>
       <c r="O17">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181257</v>
       </c>
       <c r="P17">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181256</v>
       </c>
       <c r="Q17">
-        <v>26.04521195414481</v>
+        <v>37.02888211896278</v>
       </c>
       <c r="R17">
-        <v>26.04521195414481</v>
+        <v>333.259939070665</v>
       </c>
       <c r="S17">
-        <v>0.03521814558062149</v>
+        <v>0.03216026829860344</v>
       </c>
       <c r="T17">
-        <v>0.03521814558062149</v>
+        <v>0.03216026829860344</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.260043876459023</v>
+        <v>0.3663483333333333</v>
       </c>
       <c r="H18">
-        <v>0.260043876459023</v>
+        <v>1.099045</v>
       </c>
       <c r="I18">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="J18">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>167.111051237794</v>
+        <v>173.8965253333333</v>
       </c>
       <c r="N18">
-        <v>167.111051237794</v>
+        <v>521.689576</v>
       </c>
       <c r="O18">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="P18">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="Q18">
-        <v>43.45620556301836</v>
+        <v>63.70670222832445</v>
       </c>
       <c r="R18">
-        <v>43.45620556301836</v>
+        <v>573.3603200549201</v>
       </c>
       <c r="S18">
-        <v>0.05876116410933029</v>
+        <v>0.05533044798651734</v>
       </c>
       <c r="T18">
-        <v>0.05876116410933029</v>
+        <v>0.05533044798651734</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.260043876459023</v>
+        <v>0.3663483333333333</v>
       </c>
       <c r="H19">
-        <v>0.260043876459023</v>
+        <v>1.099045</v>
       </c>
       <c r="I19">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="J19">
-        <v>0.1355410964224216</v>
+        <v>0.1294322701832175</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.37240548240858</v>
+        <v>4.671913333333333</v>
       </c>
       <c r="N19">
-        <v>4.37240548240858</v>
+        <v>14.01574</v>
       </c>
       <c r="O19">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="P19">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="Q19">
-        <v>1.137017271096212</v>
+        <v>1.711547663144444</v>
       </c>
       <c r="R19">
-        <v>1.137017271096212</v>
+        <v>15.4039289683</v>
       </c>
       <c r="S19">
-        <v>0.001537466458389671</v>
+        <v>0.001486510769505102</v>
       </c>
       <c r="T19">
-        <v>0.001537466458389671</v>
+        <v>0.001486510769505102</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.960332196122766</v>
+        <v>0.2912076666666667</v>
       </c>
       <c r="H20">
-        <v>0.960332196122766</v>
+        <v>0.873623</v>
       </c>
       <c r="I20">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="J20">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.5047600196107</v>
+        <v>16.628124</v>
       </c>
       <c r="N20">
-        <v>14.5047600196107</v>
+        <v>49.88437200000001</v>
       </c>
       <c r="O20">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056827</v>
       </c>
       <c r="P20">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056826</v>
       </c>
       <c r="Q20">
-        <v>13.92938804386644</v>
+        <v>4.842237191084002</v>
       </c>
       <c r="R20">
-        <v>13.92938804386644</v>
+        <v>43.58013471975601</v>
       </c>
       <c r="S20">
-        <v>0.01883521688522055</v>
+        <v>0.00420557246990149</v>
       </c>
       <c r="T20">
-        <v>0.01883521688522055</v>
+        <v>0.004205572469901488</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.960332196122766</v>
+        <v>0.2912076666666667</v>
       </c>
       <c r="H21">
-        <v>0.960332196122766</v>
+        <v>0.873623</v>
       </c>
       <c r="I21">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="J21">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.16243740908202</v>
+        <v>8.415293333333333</v>
       </c>
       <c r="N21">
-        <v>8.16243740908202</v>
+        <v>25.24588</v>
       </c>
       <c r="O21">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396309</v>
       </c>
       <c r="P21">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396308</v>
       </c>
       <c r="Q21">
-        <v>7.838651442778357</v>
+        <v>2.450597935915555</v>
       </c>
       <c r="R21">
-        <v>7.838651442778357</v>
+        <v>22.05538142324</v>
       </c>
       <c r="S21">
-        <v>0.01059936729075397</v>
+        <v>0.00212838958675147</v>
       </c>
       <c r="T21">
-        <v>0.01059936729075397</v>
+        <v>0.002128389586751469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.960332196122766</v>
+        <v>0.2912076666666667</v>
       </c>
       <c r="H22">
-        <v>0.960332196122766</v>
+        <v>0.873623</v>
       </c>
       <c r="I22">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="J22">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>91.1580873058836</v>
+        <v>102.101612</v>
       </c>
       <c r="N22">
-        <v>91.1580873058836</v>
+        <v>306.304836</v>
       </c>
       <c r="O22">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="P22">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="Q22">
-        <v>87.54204617681003</v>
+        <v>29.73277219342534</v>
       </c>
       <c r="R22">
-        <v>87.54204617681003</v>
+        <v>267.594949740828</v>
       </c>
       <c r="S22">
-        <v>0.1183737161405495</v>
+        <v>0.02582346201891227</v>
       </c>
       <c r="T22">
-        <v>0.1183737161405495</v>
+        <v>0.02582346201891226</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.960332196122766</v>
+        <v>0.2912076666666667</v>
       </c>
       <c r="H23">
-        <v>0.960332196122766</v>
+        <v>0.873623</v>
       </c>
       <c r="I23">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="J23">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>100.156990077207</v>
+        <v>101.0756123333333</v>
       </c>
       <c r="N23">
-        <v>100.156990077207</v>
+        <v>303.226837</v>
       </c>
       <c r="O23">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181257</v>
       </c>
       <c r="P23">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181256</v>
       </c>
       <c r="Q23">
-        <v>96.18398223789028</v>
+        <v>29.43399322449456</v>
       </c>
       <c r="R23">
-        <v>96.18398223789028</v>
+        <v>264.905939020451</v>
       </c>
       <c r="S23">
-        <v>0.1300592790314713</v>
+        <v>0.02556396696389214</v>
       </c>
       <c r="T23">
-        <v>0.1300592790314713</v>
+        <v>0.02556396696389213</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.960332196122766</v>
+        <v>0.2912076666666667</v>
       </c>
       <c r="H24">
-        <v>0.960332196122766</v>
+        <v>0.873623</v>
       </c>
       <c r="I24">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="J24">
-        <v>0.5005481404317654</v>
+        <v>0.1028847846760351</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>167.111051237794</v>
+        <v>173.8965253333333</v>
       </c>
       <c r="N24">
-        <v>167.111051237794</v>
+        <v>521.689576</v>
       </c>
       <c r="O24">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="P24">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="Q24">
-        <v>160.4821228315748</v>
+        <v>50.6400013837609</v>
       </c>
       <c r="R24">
-        <v>160.4821228315748</v>
+        <v>455.760012453848</v>
       </c>
       <c r="S24">
-        <v>0.2170027556281854</v>
+        <v>0.04398177687112469</v>
       </c>
       <c r="T24">
-        <v>0.2170027556281854</v>
+        <v>0.04398177687112469</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2912076666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.873623</v>
+      </c>
+      <c r="I25">
+        <v>0.1028847846760351</v>
+      </c>
+      <c r="J25">
+        <v>0.1028847846760351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.671913333333333</v>
+      </c>
+      <c r="N25">
+        <v>14.01574</v>
+      </c>
+      <c r="O25">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="P25">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="Q25">
+        <v>1.360496980668889</v>
+      </c>
+      <c r="R25">
+        <v>12.24447282602</v>
+      </c>
+      <c r="S25">
+        <v>0.001181616765453058</v>
+      </c>
+      <c r="T25">
+        <v>0.001181616765453058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1566013333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.469804</v>
+      </c>
+      <c r="I26">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="J26">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>16.628124</v>
+      </c>
+      <c r="N26">
+        <v>49.88437200000001</v>
+      </c>
+      <c r="O26">
+        <v>0.04087652497056827</v>
+      </c>
+      <c r="P26">
+        <v>0.04087652497056826</v>
+      </c>
+      <c r="Q26">
+        <v>2.603986389232001</v>
+      </c>
+      <c r="R26">
+        <v>23.435877503088</v>
+      </c>
+      <c r="S26">
+        <v>0.002261610292597149</v>
+      </c>
+      <c r="T26">
+        <v>0.002261610292597149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1566013333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.469804</v>
+      </c>
+      <c r="I27">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="J27">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.415293333333333</v>
+      </c>
+      <c r="N27">
+        <v>25.24588</v>
+      </c>
+      <c r="O27">
+        <v>0.02068711708396309</v>
+      </c>
+      <c r="P27">
+        <v>0.02068711708396308</v>
+      </c>
+      <c r="Q27">
+        <v>1.317846156391111</v>
+      </c>
+      <c r="R27">
+        <v>11.86061540752</v>
+      </c>
+      <c r="S27">
+        <v>0.001144573736513562</v>
+      </c>
+      <c r="T27">
+        <v>0.001144573736513562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1566013333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.469804</v>
+      </c>
+      <c r="I28">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="J28">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>102.101612</v>
+      </c>
+      <c r="N28">
+        <v>306.304836</v>
+      </c>
+      <c r="O28">
+        <v>0.250993984195287</v>
+      </c>
+      <c r="P28">
+        <v>0.250993984195287</v>
+      </c>
+      <c r="Q28">
+        <v>15.98924857468267</v>
+      </c>
+      <c r="R28">
+        <v>143.903237172144</v>
+      </c>
+      <c r="S28">
+        <v>0.01388695781857055</v>
+      </c>
+      <c r="T28">
+        <v>0.01388695781857055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1566013333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.469804</v>
+      </c>
+      <c r="I29">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="J29">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>101.0756123333333</v>
+      </c>
+      <c r="N29">
+        <v>303.226837</v>
+      </c>
+      <c r="O29">
+        <v>0.2484717934181257</v>
+      </c>
+      <c r="P29">
+        <v>0.2484717934181256</v>
+      </c>
+      <c r="Q29">
+        <v>15.82857565888311</v>
+      </c>
+      <c r="R29">
+        <v>142.457180929948</v>
+      </c>
+      <c r="S29">
+        <v>0.01374741042246413</v>
+      </c>
+      <c r="T29">
+        <v>0.01374741042246413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1566013333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.469804</v>
+      </c>
+      <c r="I30">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="J30">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>173.8965253333333</v>
+      </c>
+      <c r="N30">
+        <v>521.689576</v>
+      </c>
+      <c r="O30">
+        <v>0.4274857259954915</v>
+      </c>
+      <c r="P30">
+        <v>0.4274857259954915</v>
+      </c>
+      <c r="Q30">
+        <v>27.23242772923378</v>
+      </c>
+      <c r="R30">
+        <v>245.091849563104</v>
+      </c>
+      <c r="S30">
+        <v>0.02365186665319235</v>
+      </c>
+      <c r="T30">
+        <v>0.02365186665319235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1566013333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.469804</v>
+      </c>
+      <c r="I31">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="J31">
+        <v>0.05532785123553294</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.671913333333333</v>
+      </c>
+      <c r="N31">
+        <v>14.01574</v>
+      </c>
+      <c r="O31">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="P31">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="Q31">
+        <v>0.7316278572177778</v>
+      </c>
+      <c r="R31">
+        <v>6.58465071496</v>
+      </c>
+      <c r="S31">
+        <v>0.0006354323121952013</v>
+      </c>
+      <c r="T31">
+        <v>0.0006354323121952013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.9796620000000001</v>
+      </c>
+      <c r="H32">
+        <v>2.938986</v>
+      </c>
+      <c r="I32">
+        <v>0.3461183391186837</v>
+      </c>
+      <c r="J32">
+        <v>0.3461183391186836</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>16.628124</v>
+      </c>
+      <c r="N32">
+        <v>49.88437200000001</v>
+      </c>
+      <c r="O32">
+        <v>0.04087652497056827</v>
+      </c>
+      <c r="P32">
+        <v>0.04087652497056826</v>
+      </c>
+      <c r="Q32">
+        <v>16.28994121408801</v>
+      </c>
+      <c r="R32">
+        <v>146.609470926792</v>
+      </c>
+      <c r="S32">
+        <v>0.01414811493175649</v>
+      </c>
+      <c r="T32">
+        <v>0.01414811493175648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.9796620000000001</v>
+      </c>
+      <c r="H33">
+        <v>2.938986</v>
+      </c>
+      <c r="I33">
+        <v>0.3461183391186837</v>
+      </c>
+      <c r="J33">
+        <v>0.3461183391186836</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.415293333333333</v>
+      </c>
+      <c r="N33">
+        <v>25.24588</v>
+      </c>
+      <c r="O33">
+        <v>0.02068711708396309</v>
+      </c>
+      <c r="P33">
+        <v>0.02068711708396308</v>
+      </c>
+      <c r="Q33">
+        <v>8.24414309752</v>
+      </c>
+      <c r="R33">
+        <v>74.19728787768001</v>
+      </c>
+      <c r="S33">
+        <v>0.007160190606255051</v>
+      </c>
+      <c r="T33">
+        <v>0.007160190606255048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.9796620000000001</v>
+      </c>
+      <c r="H34">
+        <v>2.938986</v>
+      </c>
+      <c r="I34">
+        <v>0.3461183391186837</v>
+      </c>
+      <c r="J34">
+        <v>0.3461183391186836</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>102.101612</v>
+      </c>
+      <c r="N34">
+        <v>306.304836</v>
+      </c>
+      <c r="O34">
+        <v>0.250993984195287</v>
+      </c>
+      <c r="P34">
+        <v>0.250993984195287</v>
+      </c>
+      <c r="Q34">
+        <v>100.025069415144</v>
+      </c>
+      <c r="R34">
+        <v>900.2256247362961</v>
+      </c>
+      <c r="S34">
+        <v>0.08687362093845388</v>
+      </c>
+      <c r="T34">
+        <v>0.08687362093845387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.960332196122766</v>
-      </c>
-      <c r="H25">
-        <v>0.960332196122766</v>
-      </c>
-      <c r="I25">
-        <v>0.5005481404317654</v>
-      </c>
-      <c r="J25">
-        <v>0.5005481404317654</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.37240548240858</v>
-      </c>
-      <c r="N25">
-        <v>4.37240548240858</v>
-      </c>
-      <c r="O25">
-        <v>0.01134317560482224</v>
-      </c>
-      <c r="P25">
-        <v>0.01134317560482224</v>
-      </c>
-      <c r="Q25">
-        <v>4.198961759260654</v>
-      </c>
-      <c r="R25">
-        <v>4.198961759260654</v>
-      </c>
-      <c r="S25">
-        <v>0.005677805455584738</v>
-      </c>
-      <c r="T25">
-        <v>0.005677805455584738</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.9796620000000001</v>
+      </c>
+      <c r="H35">
+        <v>2.938986</v>
+      </c>
+      <c r="I35">
+        <v>0.3461183391186837</v>
+      </c>
+      <c r="J35">
+        <v>0.3461183391186836</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>101.0756123333333</v>
+      </c>
+      <c r="N35">
+        <v>303.226837</v>
+      </c>
+      <c r="O35">
+        <v>0.2484717934181257</v>
+      </c>
+      <c r="P35">
+        <v>0.2484717934181256</v>
+      </c>
+      <c r="Q35">
+        <v>99.019936529698</v>
+      </c>
+      <c r="R35">
+        <v>891.179428767282</v>
+      </c>
+      <c r="S35">
+        <v>0.08600064445572234</v>
+      </c>
+      <c r="T35">
+        <v>0.08600064445572231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.9796620000000001</v>
+      </c>
+      <c r="H36">
+        <v>2.938986</v>
+      </c>
+      <c r="I36">
+        <v>0.3461183391186837</v>
+      </c>
+      <c r="J36">
+        <v>0.3461183391186836</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>173.8965253333333</v>
+      </c>
+      <c r="N36">
+        <v>521.689576</v>
+      </c>
+      <c r="O36">
+        <v>0.4274857259954915</v>
+      </c>
+      <c r="P36">
+        <v>0.4274857259954915</v>
+      </c>
+      <c r="Q36">
+        <v>170.359817801104</v>
+      </c>
+      <c r="R36">
+        <v>1533.238360209936</v>
+      </c>
+      <c r="S36">
+        <v>0.1479606494785042</v>
+      </c>
+      <c r="T36">
+        <v>0.1479606494785042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.9796620000000001</v>
+      </c>
+      <c r="H37">
+        <v>2.938986</v>
+      </c>
+      <c r="I37">
+        <v>0.3461183391186837</v>
+      </c>
+      <c r="J37">
+        <v>0.3461183391186836</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.671913333333333</v>
+      </c>
+      <c r="N37">
+        <v>14.01574</v>
+      </c>
+      <c r="O37">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="P37">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="Q37">
+        <v>4.576895959960001</v>
+      </c>
+      <c r="R37">
+        <v>41.19206363964</v>
+      </c>
+      <c r="S37">
+        <v>0.003975118707991687</v>
+      </c>
+      <c r="T37">
+        <v>0.003975118707991686</v>
       </c>
     </row>
   </sheetData>
